--- a/log-service/downloads_calendar/First_Level_Schedule_8322.xlsx
+++ b/log-service/downloads_calendar/First_Level_Schedule_8322.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="189">
   <si>
     <t>Оперативный календарно-сетевой график выполнения ПИР/ Исполнение плана Оперативного календарно-сетевого графика выполнения ПИР</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Текущая дата (дата предоставления отчета):</t>
   </si>
   <si>
-    <t>13.06.2024</t>
+    <t>24.06.2024</t>
   </si>
   <si>
     <t>Объект капитального строительства:</t>
@@ -146,7 +146,7 @@
     <t>Инженерные изыскания (полевые работы)</t>
   </si>
   <si>
-    <t>05.08.2024</t>
+    <t>03.02.2025</t>
   </si>
   <si>
     <t>1.2</t>
@@ -155,10 +155,10 @@
     <t>Инженерные изыскания (камеральные работы) - выдача отчета</t>
   </si>
   <si>
-    <t>23.07.2024</t>
-  </si>
-  <si>
-    <t>03.09.2024</t>
+    <t>16.01.2025</t>
+  </si>
+  <si>
+    <t>19.05.2025</t>
   </si>
   <si>
     <t>1.3</t>
@@ -167,7 +167,7 @@
     <t>Инженерные изыскания (камеральные работы) согласование отчета</t>
   </si>
   <si>
-    <t>05.11.2024</t>
+    <t>07.07.2025</t>
   </si>
   <si>
     <t>1.4</t>
@@ -176,10 +176,7 @@
     <t>Инженерно-экологические изыскания</t>
   </si>
   <si>
-    <t>22.07.2024</t>
-  </si>
-  <si>
-    <t>10.12.2024</t>
+    <t>09.01.2025</t>
   </si>
   <si>
     <t>1.5</t>
@@ -197,10 +194,10 @@
     <t>Рабочая документация (60%, выдача документации ОГ)</t>
   </si>
   <si>
-    <t>28.08.2024</t>
-  </si>
-  <si>
-    <t>03.10.2024</t>
+    <t>07.05.2025</t>
+  </si>
+  <si>
+    <t>08.07.2025</t>
   </si>
   <si>
     <t>2.2</t>
@@ -209,7 +206,7 @@
     <t>Рабочая документация (30%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>03.12.2024</t>
+    <t>03.09.2025</t>
   </si>
   <si>
     <t>2.3</t>
@@ -218,7 +215,10 @@
     <t>Рабочая документация  (5%, выдача сметной документации ОГ)</t>
   </si>
   <si>
-    <t>27.09.2024</t>
+    <t>27.06.2025</t>
+  </si>
+  <si>
+    <t>18.08.2025</t>
   </si>
   <si>
     <t>2.4</t>
@@ -227,7 +227,7 @@
     <t>Рабочая документация  (5%, согласование сметной документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>09.01.2025</t>
+    <t>06.10.2025</t>
   </si>
   <si>
     <t>3. Проектная документация</t>
@@ -245,7 +245,7 @@
     <t>Проектная документация (20%, согласование документации с ОГ и УВЭ)</t>
   </si>
   <si>
-    <t>17.03.2025</t>
+    <t>18.11.2025</t>
   </si>
   <si>
     <t>3.3</t>
@@ -254,7 +254,7 @@
     <t>Проектная документация (20%, проведение внешних экспертиз)</t>
   </si>
   <si>
-    <t>15.07.2025</t>
+    <t>18.03.2026</t>
   </si>
   <si>
     <t>4. Землеустроительные работы</t>
@@ -266,7 +266,7 @@
     <t>Землеустроительная документация</t>
   </si>
   <si>
-    <t>15.05.2025</t>
+    <t>03.02.2026</t>
   </si>
   <si>
     <t>5. Прочие работы</t>
@@ -284,7 +284,7 @@
     <t>Разработка рыбохозяйственного раздела</t>
   </si>
   <si>
-    <t>15.04.2025</t>
+    <t>13.01.2026</t>
   </si>
   <si>
     <t>Этап строительства 2</t>
@@ -296,15 +296,24 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>06.09.2024</t>
+    <t>03.06.2025</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
+    <t>12.05.2025</t>
+  </si>
+  <si>
+    <t>13.08.2025</t>
+  </si>
+  <si>
     <t>6.3</t>
   </si>
   <si>
+    <t>03.10.2025</t>
+  </si>
+  <si>
     <t>6.4</t>
   </si>
   <si>
@@ -317,25 +326,31 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>24.10.2024</t>
-  </si>
-  <si>
-    <t>14.11.2024</t>
+    <t>04.08.2025</t>
+  </si>
+  <si>
+    <t>01.10.2025</t>
   </si>
   <si>
     <t>7.2</t>
   </si>
   <si>
-    <t>13.01.2025</t>
+    <t>03.12.2025</t>
   </si>
   <si>
     <t>7.3</t>
   </si>
   <si>
+    <t>22.09.2025</t>
+  </si>
+  <si>
+    <t>13.11.2025</t>
+  </si>
+  <si>
     <t>7.4</t>
   </si>
   <si>
-    <t>11.02.2025</t>
+    <t>09.01.2026</t>
   </si>
   <si>
     <t>8. Проектная документация</t>
@@ -344,19 +359,25 @@
     <t>8.1</t>
   </si>
   <si>
+    <t>14.11.2025</t>
+  </si>
+  <si>
     <t>8.2</t>
   </si>
   <si>
     <t>8.3</t>
   </si>
   <si>
+    <t>03.06.2026</t>
+  </si>
+  <si>
     <t>9. Землеустроительные работы</t>
   </si>
   <si>
     <t>9.1</t>
   </si>
   <si>
-    <t>16.05.2025</t>
+    <t>15.04.2026</t>
   </si>
   <si>
     <t>10. Прочие работы</t>
@@ -368,7 +389,7 @@
     <t>10.2</t>
   </si>
   <si>
-    <t>16.04.2025</t>
+    <t>03.04.2026</t>
   </si>
   <si>
     <t>Этап строительства 3</t>
@@ -380,18 +401,21 @@
     <t>11.1</t>
   </si>
   <si>
-    <t>11.10.2024</t>
+    <t>09.07.2025</t>
   </si>
   <si>
     <t>11.2</t>
   </si>
   <si>
-    <t>13.11.2024</t>
+    <t>14.07.2025</t>
   </si>
   <si>
     <t>11.3</t>
   </si>
   <si>
+    <t>13.10.2025</t>
+  </si>
+  <si>
     <t>11.4</t>
   </si>
   <si>
@@ -404,22 +428,19 @@
     <t>12.1</t>
   </si>
   <si>
+    <t>03.11.2025</t>
+  </si>
+  <si>
     <t>12.2</t>
   </si>
   <si>
-    <t>03.02.2025</t>
-  </si>
-  <si>
     <t>12.3</t>
   </si>
   <si>
-    <t>13.12.2024</t>
-  </si>
-  <si>
     <t>12.4</t>
   </si>
   <si>
-    <t>03.04.2025</t>
+    <t>19.01.2026</t>
   </si>
   <si>
     <t>13. Проектная документация</t>
@@ -428,16 +449,19 @@
     <t>13.1</t>
   </si>
   <si>
+    <t>05.11.2025</t>
+  </si>
+  <si>
     <t>13.2</t>
   </si>
   <si>
-    <t>14.04.2025</t>
+    <t>16.03.2026</t>
   </si>
   <si>
     <t>13.3</t>
   </si>
   <si>
-    <t>12.08.2025</t>
+    <t>14.07.2026</t>
   </si>
   <si>
     <t>14. Землеустроительные работы</t>
@@ -446,9 +470,6 @@
     <t>14.1</t>
   </si>
   <si>
-    <t>13.06.2025</t>
-  </si>
-  <si>
     <t>15. Прочие работы</t>
   </si>
   <si>
@@ -458,7 +479,7 @@
     <t>15.2</t>
   </si>
   <si>
-    <t>13.05.2025</t>
+    <t>11.05.2026</t>
   </si>
   <si>
     <t>Этап строительства 4</t>
@@ -470,12 +491,21 @@
     <t>16.1</t>
   </si>
   <si>
+    <t>30.06.2025</t>
+  </si>
+  <si>
     <t>16.2</t>
   </si>
   <si>
+    <t>15.08.2025</t>
+  </si>
+  <si>
     <t>16.3</t>
   </si>
   <si>
+    <t>10.11.2025</t>
+  </si>
+  <si>
     <t>16.4</t>
   </si>
   <si>
@@ -488,25 +518,22 @@
     <t>17.1</t>
   </si>
   <si>
+    <t>14.10.2025</t>
+  </si>
+  <si>
+    <t>17.11.2025</t>
+  </si>
+  <si>
     <t>17.2</t>
   </si>
   <si>
-    <t>10.02.2025</t>
-  </si>
-  <si>
     <t>17.3</t>
   </si>
   <si>
-    <t>21.01.2025</t>
-  </si>
-  <si>
-    <t>19.02.2025</t>
-  </si>
-  <si>
     <t>17.4</t>
   </si>
   <si>
-    <t>05.05.2025</t>
+    <t>02.02.2026</t>
   </si>
   <si>
     <t>18. Проектная документация</t>
@@ -515,16 +542,22 @@
     <t>18.1</t>
   </si>
   <si>
+    <t>15.12.2025</t>
+  </si>
+  <si>
+    <t>10.02.2026</t>
+  </si>
+  <si>
     <t>18.2</t>
   </si>
   <si>
-    <t>12.05.2025</t>
+    <t>04.05.2026</t>
   </si>
   <si>
     <t>18.3</t>
   </si>
   <si>
-    <t>09.09.2025</t>
+    <t>03.09.2026</t>
   </si>
   <si>
     <t>19. Землеустроительные работы</t>
@@ -533,7 +566,7 @@
     <t>19.1</t>
   </si>
   <si>
-    <t>11.07.2025</t>
+    <t>08.07.2026</t>
   </si>
   <si>
     <t>20. Прочие работы</t>
@@ -545,7 +578,7 @@
     <t>20.2</t>
   </si>
   <si>
-    <t>11.06.2025</t>
+    <t>19.06.2026</t>
   </si>
 </sst>
 </file>
@@ -1050,11 +1083,11 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -1064,21 +1097,21 @@
     <row r="23" ht="45.0" customHeight="true">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -1087,7 +1120,7 @@
     </row>
     <row r="24" ht="25.0" customHeight="true">
       <c r="B24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1106,21 +1139,21 @@
     <row r="25" ht="50.0" customHeight="true">
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1130,21 +1163,21 @@
     <row r="26" ht="50.0" customHeight="true">
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -1154,21 +1187,21 @@
     <row r="27" ht="50.0" customHeight="true">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -1230,11 +1263,11 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -1254,7 +1287,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="8" t="s">
@@ -1320,7 +1353,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="8" t="s">
@@ -1362,7 +1395,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="8" t="s">
@@ -1386,7 +1419,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="8" t="s">
@@ -1486,11 +1519,11 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="8" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -1500,7 +1533,7 @@
     <row r="43" ht="45.0" customHeight="true">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>50</v>
@@ -1510,11 +1543,11 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="8" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="8" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -1524,7 +1557,7 @@
     <row r="44" ht="45.0" customHeight="true">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>53</v>
@@ -1534,11 +1567,11 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -1548,21 +1581,21 @@
     <row r="45" ht="45.0" customHeight="true">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -1571,7 +1604,7 @@
     </row>
     <row r="46" ht="25.0" customHeight="true">
       <c r="B46" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1590,21 +1623,21 @@
     <row r="47" ht="50.0" customHeight="true">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -1614,21 +1647,21 @@
     <row r="48" ht="50.0" customHeight="true">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -1638,21 +1671,21 @@
     <row r="49" ht="50.0" customHeight="true">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="8" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -1662,7 +1695,7 @@
     <row r="50" ht="50.0" customHeight="true">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>70</v>
@@ -1672,11 +1705,11 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="8" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -1685,7 +1718,7 @@
     </row>
     <row r="51" ht="25.0" customHeight="true">
       <c r="B51" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1704,7 +1737,7 @@
     <row r="52" ht="50.0" customHeight="true">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>74</v>
@@ -1714,11 +1747,11 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -1728,7 +1761,7 @@
     <row r="53" ht="50.0" customHeight="true">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>76</v>
@@ -1738,11 +1771,11 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -1752,7 +1785,7 @@
     <row r="54" ht="50.0" customHeight="true">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>79</v>
@@ -1762,11 +1795,11 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="8" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -1775,7 +1808,7 @@
     </row>
     <row r="55" ht="25.0" customHeight="true">
       <c r="B55" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -1794,7 +1827,7 @@
     <row r="56" ht="45.0" customHeight="true">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>83</v>
@@ -1804,11 +1837,11 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -1817,7 +1850,7 @@
     </row>
     <row r="57" ht="25.0" customHeight="true">
       <c r="B57" s="9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -1836,7 +1869,7 @@
     <row r="58" ht="45.0" customHeight="true">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>87</v>
@@ -1846,11 +1879,11 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -1860,7 +1893,7 @@
     <row r="59" ht="45.0" customHeight="true">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>89</v>
@@ -1870,11 +1903,11 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -1899,7 +1932,7 @@
     </row>
     <row r="61" ht="22.0" customHeight="true">
       <c r="B61" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -1917,7 +1950,7 @@
     </row>
     <row r="62" ht="25.0" customHeight="true">
       <c r="B62" s="9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -1936,7 +1969,7 @@
     <row r="63" ht="45.0" customHeight="true">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>43</v>
@@ -1946,11 +1979,11 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -1960,7 +1993,7 @@
     <row r="64" ht="45.0" customHeight="true">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>46</v>
@@ -1970,11 +2003,11 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="8" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -1984,7 +2017,7 @@
     <row r="65" ht="45.0" customHeight="true">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>50</v>
@@ -1994,11 +2027,11 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="8" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="8" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -2008,7 +2041,7 @@
     <row r="66" ht="45.0" customHeight="true">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>53</v>
@@ -2018,11 +2051,11 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -2032,21 +2065,21 @@
     <row r="67" ht="45.0" customHeight="true">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -2055,7 +2088,7 @@
     </row>
     <row r="68" ht="25.0" customHeight="true">
       <c r="B68" s="9" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2074,21 +2107,21 @@
     <row r="69" ht="50.0" customHeight="true">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="8" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -2098,21 +2131,21 @@
     <row r="70" ht="50.0" customHeight="true">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="8" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="8" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -2122,21 +2155,21 @@
     <row r="71" ht="50.0" customHeight="true">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="8" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -2146,7 +2179,7 @@
     <row r="72" ht="50.0" customHeight="true">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>70</v>
@@ -2156,11 +2189,11 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="8" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -2169,7 +2202,7 @@
     </row>
     <row r="73" ht="25.0" customHeight="true">
       <c r="B73" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2188,7 +2221,7 @@
     <row r="74" ht="50.0" customHeight="true">
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>74</v>
@@ -2198,11 +2231,11 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="8" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -2212,7 +2245,7 @@
     <row r="75" ht="50.0" customHeight="true">
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>76</v>
@@ -2222,11 +2255,11 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -2236,7 +2269,7 @@
     <row r="76" ht="50.0" customHeight="true">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>79</v>
@@ -2246,11 +2279,11 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -2259,7 +2292,7 @@
     </row>
     <row r="77" ht="25.0" customHeight="true">
       <c r="B77" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2278,7 +2311,7 @@
     <row r="78" ht="45.0" customHeight="true">
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>83</v>
@@ -2288,11 +2321,11 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="8" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -2301,7 +2334,7 @@
     </row>
     <row r="79" ht="25.0" customHeight="true">
       <c r="B79" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -2320,7 +2353,7 @@
     <row r="80" ht="45.0" customHeight="true">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>87</v>
@@ -2330,11 +2363,11 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="8" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -2344,7 +2377,7 @@
     <row r="81" ht="45.0" customHeight="true">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>89</v>
@@ -2354,11 +2387,11 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -2383,7 +2416,7 @@
     </row>
     <row r="83" ht="22.0" customHeight="true">
       <c r="B83" s="9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -2401,7 +2434,7 @@
     </row>
     <row r="84" ht="25.0" customHeight="true">
       <c r="B84" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2420,7 +2453,7 @@
     <row r="85" ht="45.0" customHeight="true">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>43</v>
@@ -2430,11 +2463,11 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="8" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="8" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -2444,7 +2477,7 @@
     <row r="86" ht="45.0" customHeight="true">
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>46</v>
@@ -2454,11 +2487,11 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="8" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="8" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -2468,7 +2501,7 @@
     <row r="87" ht="45.0" customHeight="true">
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>50</v>
@@ -2478,11 +2511,11 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="8" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="8" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -2492,7 +2525,7 @@
     <row r="88" ht="45.0" customHeight="true">
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>53</v>
@@ -2502,11 +2535,11 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -2516,21 +2549,21 @@
     <row r="89" ht="45.0" customHeight="true">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -2539,7 +2572,7 @@
     </row>
     <row r="90" ht="25.0" customHeight="true">
       <c r="B90" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -2558,21 +2591,21 @@
     <row r="91" ht="50.0" customHeight="true">
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="8" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="8" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -2582,21 +2615,21 @@
     <row r="92" ht="50.0" customHeight="true">
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="8" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="8" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -2606,21 +2639,21 @@
     <row r="93" ht="50.0" customHeight="true">
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="8" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="8" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -2630,7 +2663,7 @@
     <row r="94" ht="50.0" customHeight="true">
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>70</v>
@@ -2640,11 +2673,11 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="8" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="8" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -2653,7 +2686,7 @@
     </row>
     <row r="95" ht="25.0" customHeight="true">
       <c r="B95" s="9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -2672,7 +2705,7 @@
     <row r="96" ht="50.0" customHeight="true">
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>74</v>
@@ -2682,11 +2715,11 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="8" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="8" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -2696,7 +2729,7 @@
     <row r="97" ht="50.0" customHeight="true">
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>76</v>
@@ -2706,11 +2739,11 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="8" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="8" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -2720,7 +2753,7 @@
     <row r="98" ht="50.0" customHeight="true">
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>79</v>
@@ -2730,11 +2763,11 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="8" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -2743,7 +2776,7 @@
     </row>
     <row r="99" ht="25.0" customHeight="true">
       <c r="B99" s="9" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -2762,7 +2795,7 @@
     <row r="100" ht="45.0" customHeight="true">
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>83</v>
@@ -2772,11 +2805,11 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="8" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="8" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -2785,7 +2818,7 @@
     </row>
     <row r="101" ht="25.0" customHeight="true">
       <c r="B101" s="9" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -2804,7 +2837,7 @@
     <row r="102" ht="45.0" customHeight="true">
       <c r="B102" s="6"/>
       <c r="C102" s="6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>87</v>
@@ -2814,11 +2847,11 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="8" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="8" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -2828,7 +2861,7 @@
     <row r="103" ht="45.0" customHeight="true">
       <c r="B103" s="6"/>
       <c r="C103" s="6" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>89</v>
@@ -2838,11 +2871,11 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="8" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="8" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>

--- a/log-service/downloads_calendar/First_Level_Schedule_8322.xlsx
+++ b/log-service/downloads_calendar/First_Level_Schedule_8322.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
   <si>
     <t>Оперативный календарно-сетевой график выполнения ПИР/ Исполнение плана Оперативного календарно-сетевого графика выполнения ПИР</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Текущая дата (дата предоставления отчета):</t>
   </si>
   <si>
-    <t>24.06.2024</t>
+    <t>03.07.2024</t>
   </si>
   <si>
     <t>Объект капитального строительства:</t>
@@ -146,439 +146,418 @@
     <t>Инженерные изыскания (полевые работы)</t>
   </si>
   <si>
+    <t>03.09.2024</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Инженерные изыскания (камеральные работы) - выдача отчета</t>
+  </si>
+  <si>
+    <t>13.08.2024</t>
+  </si>
+  <si>
+    <t>19.09.2024</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Инженерные изыскания (камеральные работы) согласование отчета</t>
+  </si>
+  <si>
+    <t>20.11.2024</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Инженерно-экологические изыскания</t>
+  </si>
+  <si>
+    <t>09.01.2025</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Историко-культурные изыскания</t>
+  </si>
+  <si>
+    <t>2. Рабочая документация</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Рабочая документация (60%, выдача документации ОГ)</t>
+  </si>
+  <si>
+    <t>10.09.2024</t>
+  </si>
+  <si>
+    <t>15.10.2024</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Рабочая документация (30%, согласование документации с ОГ и УВЭ)</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Рабочая документация  (5%, выдача сметной документации ОГ)</t>
+  </si>
+  <si>
+    <t>04.10.2024</t>
+  </si>
+  <si>
+    <t>05.11.2024</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Рабочая документация  (5%, согласование сметной документации с ОГ и УВЭ)</t>
+  </si>
+  <si>
+    <t>3. Проектная документация</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Проектная документация (60%, выдача документации ОГ)</t>
+  </si>
+  <si>
+    <t>10.01.2025</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Проектная документация (20%, согласование документации с ОГ и УВЭ)</t>
+  </si>
+  <si>
+    <t>02.04.2025</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Проектная документация (20%, проведение внешних экспертиз)</t>
+  </si>
+  <si>
+    <t>04.08.2025</t>
+  </si>
+  <si>
+    <t>4. Землеустроительные работы</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Землеустроительная документация</t>
+  </si>
+  <si>
+    <t>03.06.2025</t>
+  </si>
+  <si>
+    <t>5. Прочие работы</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Разработка рыбохозяйственного раздела</t>
+  </si>
+  <si>
+    <t>20.05.2025</t>
+  </si>
+  <si>
+    <t>Этап строительства 3</t>
+  </si>
+  <si>
+    <t>6. Инженерные изыскания</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>15.11.2024</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>20.01.2025</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>7. Рабочая документация</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>06.11.2024</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>11.02.2025</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>02.12.2024</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>03.03.2025</t>
+  </si>
+  <si>
+    <t>8. Проектная документация</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
     <t>03.02.2025</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Инженерные изыскания (камеральные работы) - выдача отчета</t>
-  </si>
-  <si>
-    <t>16.01.2025</t>
-  </si>
-  <si>
-    <t>19.05.2025</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Инженерные изыскания (камеральные работы) согласование отчета</t>
-  </si>
-  <si>
-    <t>07.07.2025</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>Инженерно-экологические изыскания</t>
-  </si>
-  <si>
-    <t>09.01.2025</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>Историко-культурные изыскания</t>
-  </si>
-  <si>
-    <t>2. Рабочая документация</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Рабочая документация (60%, выдача документации ОГ)</t>
-  </si>
-  <si>
-    <t>07.05.2025</t>
-  </si>
-  <si>
-    <t>08.07.2025</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Рабочая документация (30%, согласование документации с ОГ и УВЭ)</t>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>05.05.2025</t>
+  </si>
+  <si>
+    <t>8.3</t>
   </si>
   <si>
     <t>03.09.2025</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>Рабочая документация  (5%, выдача сметной документации ОГ)</t>
-  </si>
-  <si>
-    <t>27.06.2025</t>
-  </si>
-  <si>
-    <t>18.08.2025</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>Рабочая документация  (5%, согласование сметной документации с ОГ и УВЭ)</t>
-  </si>
-  <si>
-    <t>06.10.2025</t>
-  </si>
-  <si>
-    <t>3. Проектная документация</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>Проектная документация (60%, выдача документации ОГ)</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>Проектная документация (20%, согласование документации с ОГ и УВЭ)</t>
-  </si>
-  <si>
-    <t>18.11.2025</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Проектная документация (20%, проведение внешних экспертиз)</t>
-  </si>
-  <si>
-    <t>18.03.2026</t>
-  </si>
-  <si>
-    <t>4. Землеустроительные работы</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Землеустроительная документация</t>
+    <t>9. Землеустроительные работы</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>01.07.2025</t>
+  </si>
+  <si>
+    <t>10. Прочие работы</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>09.06.2025</t>
+  </si>
+  <si>
+    <t>Этап строительства 5</t>
+  </si>
+  <si>
+    <t>11. Инженерные изыскания</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>17.02.2025</t>
+  </si>
+  <si>
+    <t>14.04.2025</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>11.06.2025</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>12. Рабочая документация</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>03.04.2025</t>
+  </si>
+  <si>
+    <t>18.06.2025</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>14.08.2025</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>06.06.2025</t>
+  </si>
+  <si>
+    <t>02.07.2025</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>02.09.2025</t>
+  </si>
+  <si>
+    <t>13. Проектная документация</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>03.11.2025</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>20.02.2026</t>
+  </si>
+  <si>
+    <t>14. Землеустроительные работы</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>09.01.2026</t>
+  </si>
+  <si>
+    <t>15. Прочие работы</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>01.12.2025</t>
+  </si>
+  <si>
+    <t>Этап строительства 6</t>
+  </si>
+  <si>
+    <t>16. Инженерные изыскания</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>17.03.2025</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>03.07.2025</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>17. Рабочая документация</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>16.07.2025</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>23.06.2025</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>16.09.2025</t>
+  </si>
+  <si>
+    <t>18. Проектная документация</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>08.05.2025</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>03.10.2025</t>
+  </si>
+  <si>
+    <t>18.3</t>
   </si>
   <si>
     <t>03.02.2026</t>
   </si>
   <si>
-    <t>5. Прочие работы</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>Проект санитарно-защитных зон промышленного объекта</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>Разработка рыбохозяйственного раздела</t>
-  </si>
-  <si>
-    <t>13.01.2026</t>
-  </si>
-  <si>
-    <t>Этап строительства 2</t>
-  </si>
-  <si>
-    <t>6. Инженерные изыскания</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>03.06.2025</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>12.05.2025</t>
-  </si>
-  <si>
-    <t>13.08.2025</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>03.10.2025</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>7. Рабочая документация</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>04.08.2025</t>
-  </si>
-  <si>
-    <t>01.10.2025</t>
-  </si>
-  <si>
-    <t>7.2</t>
+    <t>19. Землеустроительные работы</t>
+  </si>
+  <si>
+    <t>19.1</t>
   </si>
   <si>
     <t>03.12.2025</t>
   </si>
   <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>22.09.2025</t>
-  </si>
-  <si>
-    <t>13.11.2025</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>09.01.2026</t>
-  </si>
-  <si>
-    <t>8. Проектная документация</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>14.11.2025</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>03.06.2026</t>
-  </si>
-  <si>
-    <t>9. Землеустроительные работы</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>15.04.2026</t>
-  </si>
-  <si>
-    <t>10. Прочие работы</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>03.04.2026</t>
-  </si>
-  <si>
-    <t>Этап строительства 3</t>
-  </si>
-  <si>
-    <t>11. Инженерные изыскания</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>09.07.2025</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>14.07.2025</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>13.10.2025</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>12. Рабочая документация</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>03.11.2025</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>19.01.2026</t>
-  </si>
-  <si>
-    <t>13. Проектная документация</t>
-  </si>
-  <si>
-    <t>13.1</t>
+    <t>20. Прочие работы</t>
+  </si>
+  <si>
+    <t>20.1</t>
   </si>
   <si>
     <t>05.11.2025</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>16.03.2026</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>14.07.2026</t>
-  </si>
-  <si>
-    <t>14. Землеустроительные работы</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>15. Прочие работы</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>11.05.2026</t>
-  </si>
-  <si>
-    <t>Этап строительства 4</t>
-  </si>
-  <si>
-    <t>16. Инженерные изыскания</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>30.06.2025</t>
-  </si>
-  <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>15.08.2025</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>10.11.2025</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>17. Рабочая документация</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>14.10.2025</t>
-  </si>
-  <si>
-    <t>17.11.2025</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>02.02.2026</t>
-  </si>
-  <si>
-    <t>18. Проектная документация</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>15.12.2025</t>
-  </si>
-  <si>
-    <t>10.02.2026</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>04.05.2026</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>03.09.2026</t>
-  </si>
-  <si>
-    <t>19. Землеустроительные работы</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>08.07.2026</t>
-  </si>
-  <si>
-    <t>20. Прочие работы</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>19.06.2026</t>
   </si>
 </sst>
 </file>
@@ -719,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:O103"/>
+  <dimension ref="B1:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1177,7 +1156,7 @@
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -1187,21 +1166,21 @@
     <row r="27" ht="50.0" customHeight="true">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -1211,21 +1190,21 @@
     <row r="28" ht="50.0" customHeight="true">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -1234,7 +1213,7 @@
     </row>
     <row r="29" ht="25.0" customHeight="true">
       <c r="B29" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1253,21 +1232,21 @@
     <row r="30" ht="50.0" customHeight="true">
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -1277,21 +1256,21 @@
     <row r="31" ht="50.0" customHeight="true">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -1301,21 +1280,21 @@
     <row r="32" ht="50.0" customHeight="true">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1324,7 +1303,7 @@
     </row>
     <row r="33" ht="25.0" customHeight="true">
       <c r="B33" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1343,21 +1322,21 @@
     <row r="34" ht="45.0" customHeight="true">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -1366,7 +1345,7 @@
     </row>
     <row r="35" ht="25.0" customHeight="true">
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1385,70 +1364,64 @@
     <row r="36" ht="45.0" customHeight="true">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" ht="45.0" customHeight="true">
+    <row r="37" ht="15.0" customHeight="true">
       <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="I37" s="8"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="K37" s="8"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" ht="15.0" customHeight="true">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+    <row r="38" ht="22.0" customHeight="true">
+      <c r="B38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" ht="22.0" customHeight="true">
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" ht="25.0" customHeight="true">
       <c r="B39" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1464,42 +1437,48 @@
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" ht="25.0" customHeight="true">
-      <c r="B40" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+    <row r="40" ht="45.0" customHeight="true">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" ht="45.0" customHeight="true">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="8" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -1509,21 +1488,21 @@
     <row r="42" ht="45.0" customHeight="true">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -1533,21 +1512,21 @@
     <row r="43" ht="45.0" customHeight="true">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="8" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="8" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -1557,10 +1536,10 @@
     <row r="44" ht="45.0" customHeight="true">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1578,66 +1557,66 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" ht="45.0" customHeight="true">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="8" t="s">
+    <row r="45" ht="25.0" customHeight="true">
+      <c r="B45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" ht="50.0" customHeight="true">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" ht="25.0" customHeight="true">
-      <c r="B46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" ht="50.0" customHeight="true">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="8" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -1647,21 +1626,21 @@
     <row r="48" ht="50.0" customHeight="true">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="8" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -1671,87 +1650,87 @@
     <row r="49" ht="50.0" customHeight="true">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="8" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" ht="50.0" customHeight="true">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" ht="25.0" customHeight="true">
-      <c r="B51" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+    <row r="50" ht="25.0" customHeight="true">
+      <c r="B50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" ht="50.0" customHeight="true">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" ht="50.0" customHeight="true">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -1761,229 +1740,229 @@
     <row r="53" ht="50.0" customHeight="true">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" ht="50.0" customHeight="true">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
+    <row r="54" ht="25.0" customHeight="true">
+      <c r="B54" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" ht="45.0" customHeight="true">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" ht="25.0" customHeight="true">
+      <c r="B56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" ht="45.0" customHeight="true">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="8" t="s">
+      <c r="D57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-    </row>
-    <row r="55" ht="25.0" customHeight="true">
-      <c r="B55" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-    </row>
-    <row r="56" ht="45.0" customHeight="true">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-    </row>
-    <row r="57" ht="25.0" customHeight="true">
-      <c r="B57" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-    </row>
-    <row r="58" ht="45.0" customHeight="true">
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" ht="15.0" customHeight="true">
       <c r="B58" s="6"/>
-      <c r="C58" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="I58" s="8"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="K58" s="8"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" ht="45.0" customHeight="true">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
+    <row r="59" ht="22.0" customHeight="true">
+      <c r="B59" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" ht="25.0" customHeight="true">
+      <c r="B60" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" ht="45.0" customHeight="true">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" ht="45.0" customHeight="true">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-    </row>
-    <row r="60" ht="15.0" customHeight="true">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-    </row>
-    <row r="61" ht="22.0" customHeight="true">
-      <c r="B61" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-    </row>
-    <row r="62" ht="25.0" customHeight="true">
-      <c r="B62" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
     </row>
     <row r="63" ht="45.0" customHeight="true">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="8" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -1993,21 +1972,21 @@
     <row r="64" ht="45.0" customHeight="true">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="8" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -2017,111 +1996,111 @@
     <row r="65" ht="45.0" customHeight="true">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="8" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="8" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" ht="45.0" customHeight="true">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-    </row>
-    <row r="67" ht="45.0" customHeight="true">
+    <row r="66" ht="25.0" customHeight="true">
+      <c r="B66" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+    </row>
+    <row r="67" ht="50.0" customHeight="true">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="8" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="8" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" ht="25.0" customHeight="true">
-      <c r="B68" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
+    <row r="68" ht="50.0" customHeight="true">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
     </row>
     <row r="69" ht="50.0" customHeight="true">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="8" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -2131,50 +2110,44 @@
     <row r="70" ht="50.0" customHeight="true">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="8" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" ht="50.0" customHeight="true">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6" t="s">
+    <row r="71" ht="25.0" customHeight="true">
+      <c r="B71" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
     </row>
     <row r="72" ht="50.0" customHeight="true">
       <c r="B72" s="6"/>
@@ -2182,41 +2155,47 @@
         <v>141</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="8" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="8" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" ht="25.0" customHeight="true">
-      <c r="B73" s="9" t="s">
+    <row r="73" ht="50.0" customHeight="true">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
     </row>
     <row r="74" ht="50.0" customHeight="true">
       <c r="B74" s="6"/>
@@ -2224,66 +2203,60 @@
         <v>144</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="8" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" ht="50.0" customHeight="true">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6" t="s">
+    <row r="75" ht="25.0" customHeight="true">
+      <c r="B75" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-    </row>
-    <row r="76" ht="50.0" customHeight="true">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+    </row>
+    <row r="76" ht="45.0" customHeight="true">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="8" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -2292,7 +2265,7 @@
     </row>
     <row r="77" ht="25.0" customHeight="true">
       <c r="B77" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2311,163 +2284,169 @@
     <row r="78" ht="45.0" customHeight="true">
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="8" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="8" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" ht="25.0" customHeight="true">
-      <c r="B79" s="9" t="s">
+    <row r="79" ht="15.0" customHeight="true">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" ht="22.0" customHeight="true">
+      <c r="B80" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-    </row>
-    <row r="80" ht="45.0" customHeight="true">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" ht="25.0" customHeight="true">
+      <c r="B81" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J80" s="6"/>
-      <c r="K80" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-    </row>
-    <row r="81" ht="45.0" customHeight="true">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+    </row>
+    <row r="82" ht="45.0" customHeight="true">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J81" s="6"/>
-      <c r="K81" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-    </row>
-    <row r="82" ht="15.0" customHeight="true">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
+      <c r="D82" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="8"/>
+      <c r="I82" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="J82" s="6"/>
-      <c r="K82" s="8"/>
+      <c r="K82" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" ht="22.0" customHeight="true">
-      <c r="B83" s="9" t="s">
+    <row r="83" ht="45.0" customHeight="true">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" ht="25.0" customHeight="true">
-      <c r="B84" s="9" t="s">
+      <c r="J83" s="6"/>
+      <c r="K83" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" ht="45.0" customHeight="true">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
+      <c r="D84" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
     </row>
     <row r="85" ht="45.0" customHeight="true">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="8" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -2480,113 +2459,113 @@
         <v>160</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="8" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="8" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" ht="45.0" customHeight="true">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-    </row>
-    <row r="88" ht="45.0" customHeight="true">
+    <row r="87" ht="25.0" customHeight="true">
+      <c r="B87" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+    </row>
+    <row r="88" ht="50.0" customHeight="true">
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="8" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="8" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" ht="45.0" customHeight="true">
+    <row r="89" ht="50.0" customHeight="true">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="8" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="8" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" ht="25.0" customHeight="true">
-      <c r="B90" s="9" t="s">
+    <row r="90" ht="50.0" customHeight="true">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
     </row>
     <row r="91" ht="50.0" customHeight="true">
       <c r="B91" s="6"/>
@@ -2594,66 +2573,60 @@
         <v>167</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" ht="50.0" customHeight="true">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="8" t="s">
+    <row r="92" ht="25.0" customHeight="true">
+      <c r="B92" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
     </row>
     <row r="93" ht="50.0" customHeight="true">
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="8" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -2666,14 +2639,14 @@
         <v>172</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="8" t="s">
@@ -2684,203 +2657,113 @@
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" ht="25.0" customHeight="true">
-      <c r="B95" s="9" t="s">
+    <row r="95" ht="50.0" customHeight="true">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" ht="50.0" customHeight="true">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6" t="s">
+      <c r="D95" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="K95" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="8" t="s">
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" ht="25.0" customHeight="true">
+      <c r="B96" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-    </row>
-    <row r="97" ht="50.0" customHeight="true">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+    </row>
+    <row r="97" ht="45.0" customHeight="true">
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="8" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" ht="50.0" customHeight="true">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6" t="s">
+    <row r="98" ht="25.0" customHeight="true">
+      <c r="B98" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+    </row>
+    <row r="99" ht="45.0" customHeight="true">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J98" s="6"/>
-      <c r="K98" s="8" t="s">
+      <c r="D99" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-    </row>
-    <row r="99" ht="25.0" customHeight="true">
-      <c r="B99" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-    </row>
-    <row r="100" ht="45.0" customHeight="true">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J100" s="6"/>
-      <c r="K100" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-    </row>
-    <row r="101" ht="25.0" customHeight="true">
-      <c r="B101" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-    </row>
-    <row r="102" ht="45.0" customHeight="true">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-    </row>
-    <row r="103" ht="45.0" customHeight="true">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J103" s="6"/>
-      <c r="K103" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -2914,27 +2797,27 @@
     <mergeCell ref="B29:O29"/>
     <mergeCell ref="B33:O33"/>
     <mergeCell ref="B35:O35"/>
+    <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
     <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="B51:O51"/>
-    <mergeCell ref="B55:O55"/>
-    <mergeCell ref="B57:O57"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B50:O50"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="B56:O56"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="B59:O59"/>
     <mergeCell ref="B60:O60"/>
-    <mergeCell ref="B61:O61"/>
-    <mergeCell ref="B62:O62"/>
-    <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B73:O73"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="B71:O71"/>
+    <mergeCell ref="B75:O75"/>
     <mergeCell ref="B77:O77"/>
     <mergeCell ref="B79:O79"/>
-    <mergeCell ref="B82:O82"/>
-    <mergeCell ref="B83:O83"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="B90:O90"/>
-    <mergeCell ref="B95:O95"/>
-    <mergeCell ref="B99:O99"/>
-    <mergeCell ref="B101:O101"/>
+    <mergeCell ref="B80:O80"/>
+    <mergeCell ref="B81:O81"/>
+    <mergeCell ref="B87:O87"/>
+    <mergeCell ref="B92:O92"/>
+    <mergeCell ref="B96:O96"/>
+    <mergeCell ref="B98:O98"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
